--- a/r5-ELGA-MOPED-7-poc-operation-definitions/StructureDefinition-moped-ext-vaestatus.xlsx
+++ b/r5-ELGA-MOPED-7-poc-operation-definitions/StructureDefinition-moped-ext-vaestatus.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T04:23:20+00:00</t>
+    <t>2024-09-18T05:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
